--- a/src/admin/assets/excel/remesa_5_2025.xlsx
+++ b/src/admin/assets/excel/remesa_5_2025.xlsx
@@ -1064,7 +1064,7 @@
       <c r="G7" s="28"/>
       <c r="H7" s="30">
         <f>SUM(G12:G212)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="I7" s="28" t="s">
         <v>14</v>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="46">
-        <v>0.0</v>
+        <v>18.0</v>
       </c>
       <c r="H12" s="44" t="s">
         <v>32</v>
@@ -1287,7 +1287,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="46">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H13" s="44" t="s">
         <v>32</v>
@@ -1331,7 +1331,7 @@
         <v>3</v>
       </c>
       <c r="G14" s="46">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H14" s="44" t="s">
         <v>32</v>
@@ -1375,7 +1375,7 @@
         <v>4</v>
       </c>
       <c r="G15" s="46">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H15" s="44" t="s">
         <v>32</v>
@@ -1419,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="G16" s="46">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H16" s="44" t="s">
         <v>32</v>
@@ -1463,7 +1463,7 @@
         <v>6</v>
       </c>
       <c r="G17" s="46">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="H17" s="44" t="s">
         <v>32</v>
